--- a/スケジュール管理・Todo.xlsx
+++ b/スケジュール管理・Todo.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="大枠" sheetId="1" r:id="rId1"/>
     <sheet name="20170513" sheetId="2" r:id="rId2"/>
+    <sheet name="20170520" sheetId="3" r:id="rId3"/>
+    <sheet name="20170605" sheetId="4" r:id="rId4"/>
+    <sheet name="20170624" sheetId="5" r:id="rId5"/>
+    <sheet name="20170702" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -444,6 +448,136 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月間Todo</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図作成</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースと走行戦略書見直し</t>
+  </si>
+  <si>
+    <t>・ユースケース走行体機能に電源投入追加</t>
+  </si>
+  <si>
+    <t>・走行戦略全面改訂　縦コラム追加</t>
+  </si>
+  <si>
+    <t>・ユースケースとアクティビティの文言は一致させる</t>
+  </si>
+  <si>
+    <t>作業項目リスト（1ループ目）作成</t>
+  </si>
+  <si>
+    <t>開発の進め方案にコメント追加</t>
+  </si>
+  <si>
+    <t>あげるもの</t>
+  </si>
+  <si>
+    <t>・ユースケース</t>
+  </si>
+  <si>
+    <t>・クラス</t>
+  </si>
+  <si>
+    <t>・走行戦略</t>
+  </si>
+  <si>
+    <t>・ステートマシン図</t>
+  </si>
+  <si>
+    <t>・開発の進め方</t>
+  </si>
+  <si>
+    <t>やること（7/3ウェブ会議）</t>
+  </si>
+  <si>
+    <t>小澤</t>
+  </si>
+  <si>
+    <t>・オブジェクト図にクラス図の内容反映</t>
+  </si>
+  <si>
+    <t>・コミュニケーション図完成（オブジェクト図の後）</t>
+  </si>
+  <si>
+    <t>村松</t>
+  </si>
+  <si>
+    <t>・ユースケース記述を書く</t>
+  </si>
+  <si>
+    <t>　　せめて上位部分</t>
+  </si>
+  <si>
+    <t>・シーケンス図完成（コミュニケーション図の後）</t>
+  </si>
+  <si>
+    <t>・実装モデル（クラス、シーケンス、ステートマシン）</t>
+  </si>
+  <si>
+    <t>・コミュニケーション図</t>
+  </si>
+  <si>
+    <t>・姿勢図</t>
+  </si>
+  <si>
+    <t>・クラス図</t>
+  </si>
+  <si>
+    <t>・ユースケース図</t>
+  </si>
+  <si>
+    <t>やること（7/5ウェブ会議）</t>
+  </si>
+  <si>
+    <t>・今まで作ったものまとめ（仕様書の整合とる）</t>
+  </si>
+  <si>
+    <t>・「仕様書」を１ファイルにまとめる（今までのユースケースと走行戦略が入る）</t>
+  </si>
+  <si>
+    <t>やること（7/9ウェブ会議）</t>
+  </si>
+  <si>
+    <t>・クラス図（コミュニケーション図と相互に修正）</t>
+  </si>
+  <si>
+    <t>・「設計書」を1ファイルにまとめる（オブジェクト図、コミュニケーション図、クラス図、ステートマシン図）</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>・「実装書」にアクティビティ図いる？</t>
+  </si>
+  <si>
+    <t>　　→「走行戦略書」からプログラムできるなら不要</t>
+  </si>
+  <si>
+    <t>　　　プログラムに困るなら実装か設計になんかいる</t>
   </si>
 </sst>
 </file>
@@ -782,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,17 +927,19 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -814,19 +950,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -837,16 +979,19 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>31</v>
       </c>
@@ -854,193 +999,201 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15">
         <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F24" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B21">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F26" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1120,4 +1273,270 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/スケジュール管理・Todo.xlsx
+++ b/スケジュール管理・Todo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="大枠" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="20170605" sheetId="4" r:id="rId4"/>
     <sheet name="20170624" sheetId="5" r:id="rId5"/>
     <sheet name="20170702" sheetId="6" r:id="rId6"/>
+    <sheet name="20170705" sheetId="7" r:id="rId7"/>
+    <sheet name="20170709" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -578,6 +580,164 @@
   </si>
   <si>
     <t>　　　プログラムに困るなら実装か設計になんかいる</t>
+  </si>
+  <si>
+    <t>やったこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能モデルレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まっさんのブランチでファイルを消した後に、元ブランチにマージ要求</t>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えた！</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あげるもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小澤</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やること（7/16ウェブ会議）</t>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・設計モデル</t>
+    <rPh sb="1" eb="3">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・要素技術検討</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス図作成</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードを確認して、使えそうな部分を取り出す</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップ座標を走行順にソート</t>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直線推進用のロジック作成</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>スイシンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスを掴むクラスを作成する</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村松</t>
+    <rPh sb="0" eb="2">
+      <t>ムラマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長山</t>
+    <rPh sb="0" eb="2">
+      <t>ナガヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スケジュール管理・Todo</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1429,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1539,4 +1699,141 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/スケジュール管理・Todo.xlsx
+++ b/スケジュール管理・Todo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="6630" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="大枠" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="20170702" sheetId="6" r:id="rId6"/>
     <sheet name="20170705" sheetId="7" r:id="rId7"/>
     <sheet name="20170709" sheetId="8" r:id="rId8"/>
+    <sheet name="20170715" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -736,6 +737,85 @@
     <t>・スケジュール管理・Todo</t>
     <rPh sb="7" eb="9">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やること（7/23ウェブ会議）</t>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス図多重度追加</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス図関数追加</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・提出用の資料まとめ開始</t>
+    <rPh sb="1" eb="4">
+      <t>テイシュツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・7/16、17に要素技術検討する</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装モデル作成</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この上までで7/19</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1741,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1836,4 +1916,68 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>